--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2064.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2064.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.164144095683221</v>
+        <v>1.129414558410645</v>
       </c>
       <c r="B1">
-        <v>2.813889298706395</v>
+        <v>3.591049909591675</v>
       </c>
       <c r="C1">
-        <v>4.634814463981692</v>
+        <v>4.165102958679199</v>
       </c>
       <c r="D1">
-        <v>2.986786240540695</v>
+        <v>2.696932315826416</v>
       </c>
       <c r="E1">
-        <v>1.206425731430214</v>
+        <v>1.052422285079956</v>
       </c>
     </row>
   </sheetData>
